--- a/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
+++ b/ca.mcgill.ecse.climbsafe/app/src/test/java/ca/mcgill/ecse/climbsafe/demo/2021-03 ECSE223 Project - Iteration 5 - Demo Script.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846A5E1-DCC5-463F-B5F3-3C789087EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9D4E1E57-2097-4FF9-BF15-7D09422032C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1920" yWindow="1920" windowWidth="19632" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Expected Result (7-person team)" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -355,10 +357,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,12 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,99 +717,99 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
@@ -817,7 +819,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
@@ -829,7 +831,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="218.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="218.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
@@ -848,7 +850,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -868,12 +870,12 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -898,49 +900,49 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="str">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]"</f>
         <v>Step 1: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of -1 weeks, and a $60 weekly price for guides. [error (-1)]</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides."</f>
         <v>Step 2: Set the NMC program information with a start date of 2022-Jan-13, a climbing season of 6 weeks, and a $60 weekly price for guides.</v>
@@ -958,115 +960,115 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="str">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the pickaxe equipment. [error (used in bundle)]"</f>
         <v>Step 3: Delete the pickaxe equipment. [error (used in bundle)]</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="str">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the plus equipment bundle."</f>
         <v>Step 4: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the plus equipment bundle.</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="str">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the pickaxe equipment."</f>
         <v>Step 5: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Delete the pickaxe equipment.</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="str">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] "</f>
         <v xml:space="preserve">Step 6: Update the pickaxe equipment. &lt;&lt;FOR 5-PERSON TEAMS: boots instead of pickaxe&gt;&gt; [error (pickaxe/boots does not exist)] </v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]"</f>
         <v>Step 7: Add the standard equipment with a weight of 3500 and a $80 weekly price. [error (standard already exists)]</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="str">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]"</f>
         <v>Step 8: Add the boot equipment with a weight of -1 and a $80 weekly price. [error (-1)]</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Add the boot equipment with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 9: Add the boot equipment with a weight of 3500 and a $80 weekly price.</v>
@@ -1084,7 +1086,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the boot equipment to boots with a weight of 3500 and a $80 weekly price."</f>
         <v>Step 10: Update the boot equipment to boots with a weight of 3500 and a $80 weekly price.</v>
@@ -1102,223 +1104,223 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="str">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 11: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Add the deluxe equipment bundle with a 40% discount, 2 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="str">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]"</f>
         <v>Step 12: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount and 2 backpacks. [error (backpack does not exist)]</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots."</f>
         <v>Step 13: &lt;&lt;NOT FOR 5-PERSON TEAMS&gt;&gt; Update the deluxe equipment bundle to a 40% discount, 3 ropes, 2 stoves, and 2 boots.</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="str">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Add the five star hotel Mountain View at 333 Valley Street."</f>
         <v>Step 14: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Add the five star hotel Mountain View at 333 Valley Street.</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="str">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Delete the hotel Climbers' Lodge."</f>
         <v>Step 15: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Delete the hotel Climbers' Lodge.</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="str">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
         <f>"Step "&amp;ROW()-1&amp;": &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road."</f>
         <v>Step 16: &lt;&lt;ONLY FOR 7-PERSON TEAMS&gt;&gt; Update the High Peak hotel to Low Peak, two stars, and address 455 No View Road.</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="str">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]"</f>
         <v>Step 17: Register a guide with email bengmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid email)]</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="str">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]"</f>
         <v>Step 18: Register a guide with email admin@nmc.nt, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (admin exists)]</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="str">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]"</f>
         <v>Step 19: Register a guide with email joe@hotmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666. [error (member exists)]</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="str">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 20: Register a guide with email ben@gmail.com, password 9876, name Ben Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="str">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]"</f>
         <v>Step 21: Update the guide with email ben@gmail.com to an empty password, name Ben Hill, and emergency contact (222) 987-6666. [error (invalid password)]</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="str">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666."</f>
         <v>Step 22: Update the guide with email ben@gmail.com to password 9876, name Benny Hill, and emergency contact (222) 987-6666.</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Delete the guide bob@gmail.com."</f>
         <v>Step 23: Delete the guide bob@gmail.com.</v>
@@ -1336,204 +1338,204 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="str">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222."</f>
         <v>Step 24: Register a guide with email susi@gmail.com, password 8765, name Susi Hill, and emergency contact (222) 111-2222.</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="str">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid email)]"</f>
         <v>Step 25: Register a member with email jennifer@@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid email)]</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="str">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid emergency contact)]"</f>
         <v>Step 26: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, an empty emergency contact, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid emergency contact)]</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="str">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles. [error (7)]"</f>
         <v>Step 27: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 7 weeks, a guide, a hotel, and no equipment/bundles. [error (7)]</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="str">
+      <c r="A29" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (guide exists)]"</f>
         <v>Step 28: Register a member with email sarah@yahoo.ca, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (guide exists)]</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles."</f>
         <v>Step 29: Register a member with email jennifer@hotmail.com, password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles.</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="str">
+      <c r="A31" s="11" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid name)]"</f>
         <v>Step 30: Update the member with email jennifer@hotmail.com to password 5555, empty name, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, and no equipment/bundles. [error (invalid name)]</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="str">
+      <c r="A32" s="9" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt; [error (backpack does not exist)]")</f>
         <v>Step 31: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 backpacks, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt; [error (backpack does not exist)]</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="str">
+      <c r="A33" s="11" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 large). [error (large does not exist)]")</f>
         <v>Step 32: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 large). [error (large does not exist)]</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="str">
+      <c r="A34" s="13" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jennifer@hotmail.com to ", "password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;")</f>
         <v>Step 33: Update the member with email jennifer@hotmail.com to password 5555, name Jennifer Black, emergency contact (222) 987-6545, 3 weeks, a guide, a hotel, equipment (3 ropes, 2 boots), and bundles (1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="14" t="str">
         <f>"Step "&amp;ROW()-1&amp;": Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles."</f>
         <v>Step 34: Register a member with email jeremy@hotmail.com, password 4444, name Jeremy Black, emergency contact (222) 987-6546, 1 week, no guide, a hotel, and no equipment/bundles.</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="str">
@@ -1554,22 +1556,22 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="str">
+      <c r="A37" s="13" t="str">
         <f>CONCATENATE("Step "&amp;ROW()-1,": Update the member with email jack@hotmail.com to ","password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, and bundles (1 standard, 1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;")</f>
         <v>Step 36: Update the member with email jack@hotmail.com to password 1234, name Jack Black, emergency contact (222) 987-6542, 5 weeks, a guide, a hotel, no equipment, and bundles (1 standard, 1 deluxe). &lt;&lt;FOR 5-PERSON TEAMS: plus instead of deluxe&gt;&gt;</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="str">
@@ -1590,21 +1592,21 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="str">
@@ -1786,7 +1788,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="str">
         <f>"Step "&amp;ROW()-2&amp;": The administrator starts the trips for week 1."</f>
         <v>Step 47: The administrator starts the trips for week 1.</v>
@@ -1884,25 +1886,63 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A21:M21"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A13:M13"/>
     <mergeCell ref="A1:M1"/>
@@ -1919,44 +1959,6 @@
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
@@ -1969,40 +1971,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2014,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2026,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
@@ -2043,7 +2045,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
@@ -2062,7 +2064,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
@@ -2168,40 +2170,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2213,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2244,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2261,7 +2263,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2359,40 +2361,40 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.54296875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2404,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2416,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2435,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2471,7 +2473,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
